--- a/block_sizes.xlsx
+++ b/block_sizes.xlsx
@@ -347,7 +347,7 @@
   <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -426,7 +426,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B2/B5</f>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <f>C2/C5</f>
@@ -452,7 +452,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>B3/B5</f>
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <f>C3/C5</f>

--- a/block_sizes.xlsx
+++ b/block_sizes.xlsx
@@ -344,25 +344,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="C2">
         <f>B2/2</f>
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="D2">
         <f>C2/2</f>
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="G2">
         <v>512</v>
@@ -375,8 +375,27 @@
         <f>H2/2</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>640</v>
+      </c>
+      <c r="O2">
+        <f>N2/2</f>
+        <v>320</v>
+      </c>
+      <c r="P2">
+        <f>O2/2</f>
+        <v>160</v>
+      </c>
+      <c r="S2">
+        <f>N2/N3</f>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f>P2*4</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1920</v>
       </c>
@@ -399,19 +418,34 @@
         <f>H3/2</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>640</v>
+      </c>
+      <c r="O3">
+        <f>N3/2</f>
+        <v>320</v>
+      </c>
+      <c r="P3">
+        <f>O3/2</f>
+        <v>160</v>
+      </c>
+      <c r="U3">
+        <f>U2/1.25</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>64</v>
@@ -422,19 +456,42 @@
       <c r="I5">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f>N2/N5</f>
+        <v>40</v>
+      </c>
+      <c r="O7">
+        <f>O2/O5</f>
+        <v>20</v>
+      </c>
+      <c r="P7">
+        <f>P2/P5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B2/B5</f>
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <f>C2/C5</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <f>D2/D5</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <f>G3/G5</f>
@@ -448,19 +505,43 @@
         <f>I3/I5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f>N3/N5</f>
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <f>O3/O5</f>
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <f>P3/P5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>B3/B5</f>
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <f>C3/C5</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <f>D3/D5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f>600-584</f>
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f>400-388</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/block_sizes.xlsx
+++ b/block_sizes.xlsx
@@ -344,25 +344,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U12"/>
+  <dimension ref="A2:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>1280</v>
+        <v>1792</v>
       </c>
       <c r="C2">
         <f>B2/2</f>
-        <v>640</v>
+        <v>896</v>
       </c>
       <c r="D2">
         <f>C2/2</f>
-        <v>320</v>
+        <v>448</v>
+      </c>
+      <c r="E2">
+        <f>D2/2</f>
+        <v>224</v>
       </c>
       <c r="G2">
         <v>512</v>
@@ -397,15 +401,19 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>1920</v>
+        <v>2560</v>
       </c>
       <c r="C3">
         <f>B3/2</f>
-        <v>960</v>
+        <v>1280</v>
       </c>
       <c r="D3">
         <f>C3/2</f>
-        <v>480</v>
+        <v>640</v>
+      </c>
+      <c r="E3">
+        <f>D3/2</f>
+        <v>320</v>
       </c>
       <c r="G3">
         <v>512</v>
@@ -445,6 +453,9 @@
         <v>32</v>
       </c>
       <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
         <v>32</v>
       </c>
       <c r="G5">
@@ -483,15 +494,19 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B2/B5</f>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <f>C2/C5</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <f>D2/D5</f>
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <f>E2/E5</f>
+        <v>7</v>
       </c>
       <c r="G8">
         <f>G3/G5</f>
@@ -521,15 +536,19 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>B3/B5</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <f>C3/C5</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <f>D3/D5</f>
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <f>E3/E5</f>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -544,6 +563,50 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>584</v>
+      </c>
+      <c r="C18">
+        <f>B18*4</f>
+        <v>2336</v>
+      </c>
+      <c r="E18">
+        <f>B3-C18</f>
+        <v>224</v>
+      </c>
+      <c r="F18">
+        <f>E18/2</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>388</v>
+      </c>
+      <c r="C19">
+        <f>B19*4</f>
+        <v>1552</v>
+      </c>
+      <c r="E19">
+        <f>B2-C19</f>
+        <v>240</v>
+      </c>
+      <c r="F19">
+        <f>E19/2</f>
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/block_sizes.xlsx
+++ b/block_sizes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>blocksize</t>
   </si>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U19"/>
+  <dimension ref="A2:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -357,15 +357,15 @@
         <v>1792</v>
       </c>
       <c r="C2">
-        <f>B2/2</f>
+        <f t="shared" ref="C2:E3" si="0">B2/2</f>
         <v>896</v>
       </c>
       <c r="D2">
-        <f>C2/2</f>
+        <f t="shared" si="0"/>
         <v>448</v>
       </c>
       <c r="E2">
-        <f>D2/2</f>
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="G2">
@@ -404,15 +404,15 @@
         <v>2560</v>
       </c>
       <c r="C3">
-        <f>B3/2</f>
+        <f t="shared" si="0"/>
         <v>1280</v>
       </c>
       <c r="D3">
-        <f>C3/2</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="E3">
-        <f>D3/2</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="G3">
@@ -567,13 +567,82 @@
       <c r="B14">
         <v>720</v>
       </c>
+      <c r="C14">
+        <f>B14/2</f>
+        <v>360</v>
+      </c>
+      <c r="D14">
+        <f>C14/2</f>
+        <v>180</v>
+      </c>
+      <c r="E14">
+        <f>D14/2</f>
+        <v>90</v>
+      </c>
+      <c r="H14">
+        <f>B14+48</f>
+        <v>768</v>
+      </c>
+      <c r="I14">
+        <f>H14/2</f>
+        <v>384</v>
+      </c>
+      <c r="J14">
+        <f>I14/2</f>
+        <v>192</v>
+      </c>
+      <c r="K14">
+        <f>J14/2</f>
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1280</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>B15/2</f>
+        <v>640</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:E15" si="1">C15/2</f>
+        <v>320</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="H15">
+        <v>1280</v>
+      </c>
+      <c r="I15">
+        <f>H15/2</f>
+        <v>640</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:K15" si="2">I15/2</f>
+        <v>320</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>584</v>
       </c>
@@ -589,8 +658,24 @@
         <f>E18/2</f>
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f>H14/H17</f>
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:K18" si="3">I14/I17</f>
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>388</v>
       </c>
@@ -605,6 +690,90 @@
       <c r="F19">
         <f>E19/2</f>
         <v>120</v>
+      </c>
+      <c r="H19">
+        <f>H15/H17</f>
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:K19" si="4">I15/I17</f>
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2368</v>
+      </c>
+      <c r="C23">
+        <f>B23/2</f>
+        <v>1184</v>
+      </c>
+      <c r="D23">
+        <f>C23/2</f>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>4160</v>
+      </c>
+      <c r="C24">
+        <f>B24/2</f>
+        <v>2080</v>
+      </c>
+      <c r="D24">
+        <f>C24/2</f>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>B23/B26</f>
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <f>C23/C26</f>
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <f>D23/D26</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>B24/B26</f>
+        <v>130</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:D29" si="5">C24/C26</f>
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
